--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1053.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1053.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.838101129558701</v>
+        <v>1.382559895515442</v>
       </c>
       <c r="B1">
-        <v>2.550351834316462</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.90121186580524</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.772977869794655</v>
+        <v>1.250352740287781</v>
       </c>
       <c r="E1">
-        <v>1.622467047812523</v>
+        <v>0.8312276005744934</v>
       </c>
     </row>
   </sheetData>
